--- a/Output/todays_baseball_games.xlsx
+++ b/Output/todays_baseball_games.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,19 +461,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PIT</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CIN</t>
+          <t>CHC</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5640224820331807</v>
+        <v>22.60831180175332</v>
       </c>
     </row>
     <row r="3">
@@ -482,19 +482,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>NYY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NYY</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4406428851681031</v>
+        <v>4.314625907503821</v>
       </c>
     </row>
     <row r="4">
@@ -503,19 +503,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LAD</t>
+          <t>TBR</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CHC</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.568866674828276</v>
+        <v>2.381723905818793</v>
       </c>
     </row>
     <row r="5">
@@ -524,19 +524,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SFG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>PIT</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2530268588289147</v>
+        <v>0.3889063420258712</v>
       </c>
     </row>
     <row r="6">
@@ -545,19 +545,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>KCR</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>OAK</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.05523684682750596</v>
+        <v>0.532069319192773</v>
       </c>
     </row>
     <row r="7">
@@ -566,19 +566,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>TEX</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>DET</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>HOU</t>
-        </is>
-      </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4674383979388121</v>
+        <v>0.1457329356251702</v>
       </c>
     </row>
     <row r="8">
@@ -587,19 +587,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NYM</t>
+          <t>CHW</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4124632875868747</v>
+        <v>2.107642594188763</v>
       </c>
     </row>
     <row r="9">
@@ -608,19 +608,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CHW</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CIN</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.09713129975409986</v>
+        <v>0.7772089354842318</v>
       </c>
     </row>
     <row r="10">
@@ -629,19 +629,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>NYM</t>
         </is>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2530268588289147</v>
+        <v>111.4134874234963</v>
       </c>
     </row>
     <row r="11">
@@ -650,19 +650,19 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PIT</t>
+          <t>LAA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CIN</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="D11" t="n">
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5640224820331807</v>
+        <v>0.7617123291494935</v>
       </c>
     </row>
     <row r="12">
@@ -671,19 +671,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>KCR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>WSN</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3203292047215656</v>
+        <v>1.118414752138041</v>
       </c>
     </row>
     <row r="13">
@@ -692,19 +692,19 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>STL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SFG</t>
+          <t>LAD</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.06709894126985366</v>
+        <v>7.264399766571358</v>
       </c>
     </row>
     <row r="14">
@@ -713,19 +713,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>STL</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D14" t="n">
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0.650907076515753</v>
+        <v>1.119934098305684</v>
       </c>
     </row>
     <row r="15">
@@ -734,19 +734,19 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LAD</t>
+          <t>SDP</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CHC</t>
+          <t>COL</t>
         </is>
       </c>
       <c r="D15" t="n">
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0.568866674828276</v>
+        <v>11.52098388917983</v>
       </c>
     </row>
     <row r="16">
@@ -755,7 +755,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>COL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -767,7 +767,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1652252314344942</v>
+        <v>0.4440164425656478</v>
       </c>
     </row>
     <row r="17">
@@ -776,61 +776,19 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>LAA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SDP</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0.07294397705361857</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>WSN</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>LAA</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.4256861894199764</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>TBR</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.5059289671163159</v>
+        <v>0.7617123291494935</v>
       </c>
     </row>
   </sheetData>

--- a/Output/todays_baseball_games.xlsx
+++ b/Output/todays_baseball_games.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,19 +461,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CHC</t>
+          <t>PIT</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>22.60831180175332</v>
+        <v>0.6356198205650823</v>
       </c>
     </row>
     <row r="3">
@@ -482,19 +482,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NYY</t>
+          <t>CHC</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>STL</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>4.314625907503821</v>
+        <v>2.400858041610727</v>
       </c>
     </row>
     <row r="4">
@@ -503,19 +503,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TBR</t>
+          <t>LAD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>SFG</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>2.381723905818793</v>
+        <v>5.905358682968179</v>
       </c>
     </row>
     <row r="5">
@@ -524,19 +524,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SFG</t>
+          <t>OAK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PIT</t>
+          <t>LAA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3889063420258712</v>
+        <v>0.1953632704919195</v>
       </c>
     </row>
     <row r="6">
@@ -545,19 +545,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>KCR</t>
+          <t>COL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>OAK</t>
+          <t>SDP</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.532069319192773</v>
+        <v>1.451151634276205</v>
       </c>
     </row>
     <row r="7">
@@ -566,19 +566,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>WSN</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1457329356251702</v>
+        <v>0.4013477849092041</v>
       </c>
     </row>
     <row r="8">
@@ -587,19 +587,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CHW</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>2.107642594188763</v>
+        <v>1.908492021729495</v>
       </c>
     </row>
     <row r="9">
@@ -608,19 +608,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>TBR</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CIN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D9" t="n">
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7772089354842318</v>
+        <v>0.4570349543123181</v>
       </c>
     </row>
     <row r="10">
@@ -629,7 +629,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -641,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>111.4134874234963</v>
+        <v>1.573716395219439</v>
       </c>
     </row>
     <row r="11">
@@ -650,19 +650,19 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LAA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D11" t="n">
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7617123291494935</v>
+        <v>1.348582565547478</v>
       </c>
     </row>
     <row r="12">
@@ -671,19 +671,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>CHC</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>WSN</t>
+          <t>STL</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1.118414752138041</v>
+        <v>2.400858041610727</v>
       </c>
     </row>
     <row r="13">
@@ -692,19 +692,19 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>CHW</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>LAD</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>7.264399766571358</v>
+        <v>1.020154115162248</v>
       </c>
     </row>
     <row r="14">
@@ -713,82 +713,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>STL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>KCR</t>
         </is>
       </c>
       <c r="D14" t="n">
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1.119934098305684</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>SDP</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>COL</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>11.52098388917983</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>ARI</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.4440164425656478</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>LAA</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.7617123291494935</v>
+        <v>0.3239846167632727</v>
       </c>
     </row>
   </sheetData>

--- a/Output/todays_baseball_games.xlsx
+++ b/Output/todays_baseball_games.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,19 +461,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>SFG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PIT</t>
+          <t>WSN</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6356198205650823</v>
+        <v>0.2556129245809603</v>
       </c>
     </row>
     <row r="3">
@@ -482,19 +482,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CHC</t>
+          <t>NYY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>STL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.400858041610727</v>
+        <v>1.342211211692394</v>
       </c>
     </row>
     <row r="4">
@@ -503,19 +503,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LAD</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SFG</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>5.905358682968179</v>
+        <v>0.5083008486952084</v>
       </c>
     </row>
     <row r="5">
@@ -524,19 +524,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OAK</t>
+          <t>COL</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LAA</t>
+          <t>CIN</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1953632704919195</v>
+        <v>0.8955912128319969</v>
       </c>
     </row>
     <row r="6">
@@ -545,19 +545,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>COL</t>
+          <t>SDP</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SDP</t>
+          <t>NYM</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1.451151634276205</v>
+        <v>33.05681930309504</v>
       </c>
     </row>
     <row r="7">
@@ -566,19 +566,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>WSN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4013477849092041</v>
+        <v>61.03499220317596</v>
       </c>
     </row>
     <row r="8">
@@ -587,19 +587,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>TBR</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1.908492021729495</v>
+        <v>2.136187598224439</v>
       </c>
     </row>
     <row r="9">
@@ -608,19 +608,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TBR</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4570349543123181</v>
+        <v>135.5075178107587</v>
       </c>
     </row>
     <row r="10">
@@ -629,19 +629,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CHW</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NYM</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1.573716395219439</v>
+        <v>0.4297859550121219</v>
       </c>
     </row>
     <row r="11">
@@ -650,19 +650,19 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PIT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.348582565547478</v>
+        <v>0.3827230340867849</v>
       </c>
     </row>
     <row r="12">
@@ -671,19 +671,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CHC</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>STL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>2.400858041610727</v>
+        <v>3.825731188627599</v>
       </c>
     </row>
     <row r="13">
@@ -692,19 +692,19 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CHW</t>
+          <t>KCR</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>OAK</t>
         </is>
       </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1.020154115162248</v>
+        <v>0.2464039294835585</v>
       </c>
     </row>
     <row r="14">
@@ -713,19 +713,61 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>LAA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>KCR</t>
+          <t>ARI</t>
         </is>
       </c>
       <c r="D14" t="n">
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3239846167632727</v>
+        <v>0.5289096371191416</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>TEX</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>LAD</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>14.705818478223</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>STL</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>CHC</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.796631002659903</v>
       </c>
     </row>
   </sheetData>

--- a/Output/todays_baseball_games.xlsx
+++ b/Output/todays_baseball_games.xlsx
@@ -461,19 +461,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SFG</t>
+          <t>CHW</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>WSN</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2556129245809603</v>
+        <v>0.5393406249531214</v>
       </c>
     </row>
     <row r="3">
@@ -482,19 +482,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NYY</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>STL</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1.342211211692394</v>
+        <v>1.030712444247613</v>
       </c>
     </row>
     <row r="4">
@@ -503,19 +503,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CHC</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5083008486952084</v>
+        <v>0.6223082182774384</v>
       </c>
     </row>
     <row r="5">
@@ -524,19 +524,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>COL</t>
+          <t>SFG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CIN</t>
+          <t>NYY</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8955912128319969</v>
+        <v>2.306182588498584</v>
       </c>
     </row>
     <row r="6">
@@ -545,19 +545,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SDP</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NYM</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>33.05681930309504</v>
+        <v>10.98960764639603</v>
       </c>
     </row>
     <row r="7">
@@ -571,14 +571,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>WSN</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>61.03499220317596</v>
+        <v>0.8732256307885556</v>
       </c>
     </row>
     <row r="8">
@@ -587,19 +587,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>LAA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TBR</t>
+          <t>OAK</t>
         </is>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>2.136187598224439</v>
+        <v>0.1283241409850735</v>
       </c>
     </row>
     <row r="9">
@@ -608,19 +608,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>KCR</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>135.5075178107587</v>
+        <v>0.7393500427632306</v>
       </c>
     </row>
     <row r="10">
@@ -629,19 +629,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CHW</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4297859550121219</v>
+        <v>1.948801207672137</v>
       </c>
     </row>
     <row r="11">
@@ -655,14 +655,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CIN</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3827230340867849</v>
+        <v>3.142187116682669</v>
       </c>
     </row>
     <row r="12">
@@ -671,19 +671,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>TBR</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>3.825731188627599</v>
+        <v>0.2917965768710004</v>
       </c>
     </row>
     <row r="13">
@@ -692,19 +692,19 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>KCR</t>
+          <t>NYM</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>OAK</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2464039294835585</v>
+        <v>0.7493689572451762</v>
       </c>
     </row>
     <row r="14">
@@ -713,19 +713,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LAA</t>
+          <t>COL</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ARI</t>
+          <t>SDP</t>
         </is>
       </c>
       <c r="D14" t="n">
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5289096371191416</v>
+        <v>2.126588872432037</v>
       </c>
     </row>
     <row r="15">
@@ -734,7 +734,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>ARI</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>14.705818478223</v>
+        <v>1.017897616548933</v>
       </c>
     </row>
     <row r="16">
@@ -755,19 +755,19 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>STL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CHC</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.796631002659903</v>
+        <v>0.9578535977974049</v>
       </c>
     </row>
   </sheetData>
